--- a/users.xlsx
+++ b/users.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,78 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Louie</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yvonne</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Test </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ehem</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ash</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bline</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lord</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,42 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>raphael</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>raprap</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>kyzel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>kyzel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>kyzel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>kyzel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
